--- a/Sorted_Output.xlsx
+++ b/Sorted_Output.xlsx
@@ -417,26 +417,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>['Business', 'Public Policy']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -469,7 +469,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Computer Science', 'Mathematics']</t>
+          <t>['Business', 'Economics']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -483,31 +483,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Nutrition', 'Public Policy']</t>
+          <t>Undecided</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['T', 'T', 'F', 'F']</t>
+          <t>['F', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -516,11 +516,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Business', 'Communication']</t>
+          <t>['Computer Science', 'PWAD']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['T', 'T', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -549,11 +549,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Physics', 'Sociology']</t>
+          <t>Public Policy</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['T', 'F', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -582,7 +582,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -596,17 +596,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Human Development and Family Studies</t>
+          <t>Economics</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['F', 'F', 'F', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -615,7 +615,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -624,17 +624,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Medical Anthropology </t>
+          <t>['Political Science', 'Journalism']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -648,16 +648,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nutrition</t>
+          <t>['Nutrition', 'Public Policy']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'F', 'F']</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -681,31 +681,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['Health Policy and Management', 'Public Policy']</t>
+          <t>['Journalism', 'Public Policy']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['F', 'T', 'T', 'F']</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -714,16 +714,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Public Policy</t>
+          <t>['Business', 'Computer Science']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -747,7 +747,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Journalism', 'Public Policy']</t>
+          <t>Environmental Health Sciences</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'F', 'F']</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -780,7 +780,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['Business', 'Computer Science']</t>
+          <t>['Statistics', 'Business']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'T', ' T']</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -813,16 +813,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -832,12 +832,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['Economics', 'Neuroscience']</t>
+          <t>['Global Studies', 'Philosophy']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['F', 'F', 'T', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -846,7 +846,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['Business', 'Economics']</t>
+          <t>Health Policy and Management</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -879,11 +879,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Nutrition', 'Medical Anthropology']</t>
+          <t>Biology</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'F']</t>
+          <t>['T', 'T', 'F', 'F']</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -912,31 +912,31 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['Global Studies', 'Medical Anthropology']</t>
+          <t>Public Policy</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['T', 'T', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -945,16 +945,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -964,12 +964,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Undecided</t>
+          <t>['Health Policy and Management', 'Public Policy']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['T', 'F', 'F', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -978,16 +978,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -997,12 +997,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Biology</t>
+          <t>Nutrition</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['T', 'T', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1011,16 +1011,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Health Policy and Management</t>
+          <t>['Economics', 'Political Science']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1044,11 +1044,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['Spanish Literature and Cultures', 'History']</t>
+          <t>['Computer Science', 'Mathematics']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['T', 'F', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1077,7 +1077,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1091,17 +1091,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Environmental Health Sciences</t>
+          <t>['Biology', 'PWAD']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['T', 'T', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1110,11 +1110,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1124,17 +1124,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['Statistics', 'Business']</t>
+          <t>['Computer Science', 'Political Science']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', ' T']</t>
+          <t>['F', 'F', 'T', 'T']</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1143,16 +1143,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['Global Studies', 'Philosophy']</t>
+          <t>Economics</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['F', 'F', 'T', 'T']</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1176,7 +1176,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Journalism</t>
+          <t>['Business', 'Biology ']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1209,11 +1209,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['Political Science', 'Economics']</t>
+          <t>Journalism</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'T', 'F']</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1242,11 +1242,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Biomedical Engineering</t>
+          <t xml:space="preserve">Medical Anthropology </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1275,7 +1275,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['H', 'W']</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Undecided</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['T', 'T', 'F', 'F']</t>
+          <t>['T', 'F', 'F', 'T']</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1308,31 +1308,31 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>['Business', 'Public Policy']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1341,7 +1341,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1350,17 +1350,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['Business', 'Public Policy']</t>
+          <t>['Political Science', 'Economics']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1374,7 +1374,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1388,12 +1388,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Global Studies</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1407,7 +1407,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1421,17 +1421,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['Biology', 'PWAD']</t>
+          <t>['Business', 'Communication']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'F', 'F']</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1440,7 +1440,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['Computer Science', 'Business']</t>
+          <t>Biomedical Engineering</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['T', 'F', 'F', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1473,7 +1473,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1482,17 +1482,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>['A', 'W']</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mathematics </t>
+          <t>History</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1506,31 +1506,31 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Journalism</t>
+          <t>['Biology', 'Chemistry']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1539,11 +1539,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Health Policy and Management</t>
+          <t>Exercise and Sport Science</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['F', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1572,7 +1572,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1581,22 +1581,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['Journalism', 'Public Policy']</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['F', 'T', 'T', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1605,11 +1605,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>['Computer Science', 'Economics']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1638,7 +1638,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1657,12 +1657,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Political Science', 'Journalism']</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['F', 'T', 'T', 'T', '']</t>
+          <t>['T', 'T', 'T', 'F']</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1671,7 +1671,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1690,12 +1690,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Exercise and Sport Science</t>
+          <t>['Business', 'Economics']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['F', 'T', 'T', 'T']</t>
+          <t>['T', 'F', 'F', 'F']</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1704,16 +1704,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>UD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['Computer Science', 'Political Science']</t>
+          <t>Nutrition</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>['F', 'F', 'T', 'T']</t>
+          <t>['F', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1737,16 +1737,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['Computer Science', 'PWAD']</t>
+          <t>['Journalism', 'Public Policy']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1770,16 +1770,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['Business', 'Public Policy']</t>
+          <t>['Psychology', 'Business']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['F', 'F', 'T', 'T ']</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1803,7 +1803,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1812,22 +1812,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>['H', 'W']</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['Public Policy', 'Economics']</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'F', 'F']</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -1836,11 +1836,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1850,17 +1850,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Undecided</t>
+          <t>Biomedical Engineering</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['F', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1869,16 +1869,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1888,12 +1888,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['Psychology', 'Business']</t>
+          <t>['Global Studies', 'Medical Anthropology']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['F', 'F', 'T', 'T ']</t>
+          <t>['T', 'T', 'F', 'F']</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -1902,7 +1902,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1911,22 +1911,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Psychology </t>
+          <t>['Political Science', 'Journalism']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['F', 'T', 'T', 'T', '']</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -1935,7 +1935,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>['SA', 'W']</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['English', 'Computer Science']</t>
+          <t>['Political Science', 'AAAD']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1968,16 +1968,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1987,12 +1987,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['Biology', 'Chemistry']</t>
+          <t>['Spanish Literature and Cultures', 'History']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'F', 'F', 'F']</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2001,26 +2001,26 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['Business', 'Biology ']</t>
+          <t>Health Policy and Management</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2034,7 +2034,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2048,17 +2048,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>Journalism</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['F', 'F', 'T', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2067,7 +2067,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2076,22 +2076,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['A', 'W']</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>History</t>
+          <t>['Nutrition', 'Medical Anthropology']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'T', 'F']</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2100,31 +2100,31 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Business', 'Economics']</t>
+          <t xml:space="preserve">Psychology </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['T', 'F', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2133,7 +2133,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2142,22 +2142,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['Economics', 'Political Science']</t>
+          <t>['Computer Science', 'Business']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'F', 'F', 'T']</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2166,26 +2166,26 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Philosophy</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2199,7 +2199,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['H', 'W']</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2218,12 +2218,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Political Science', 'Global Studies']</t>
+          <t>['Business', 'Journalism']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['F', 'F', 'T', 'T,']</t>
+          <t>['T', 'T', 'T', 'F']</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2232,7 +2232,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['Political Science', 'Journalism']</t>
+          <t>['Public Policy', 'Economics']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2265,31 +2265,31 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['Computer Science', 'Economics']</t>
+          <t>['Economics', 'Neuroscience']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['F', 'F', 'T', 'T']</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2298,26 +2298,26 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['SA', 'W']</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['Political Science', 'AAAD']</t>
+          <t xml:space="preserve">Mathematics </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2331,7 +2331,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>['H', 'W']</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2350,12 +2350,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['Business', 'Journalism']</t>
+          <t>['Political Science', 'Global Studies']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'F']</t>
+          <t>['F', 'F', 'T', 'T,']</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2364,7 +2364,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2373,22 +2373,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>UD</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Nutrition</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['F', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2448,16 +2448,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Computer Science', 'PWAD']</t>
+          <t>['Journalism', 'Public Policy']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2478,16 +2478,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2497,18 +2497,18 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Business', 'Public Policy']</t>
+          <t>['Psychology', 'Business']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['F', 'F', 'T', 'T ']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2517,32 +2517,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>['H', 'W']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Public Policy', 'Economics']</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'F', 'F']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2552,32 +2552,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Undecided</t>
+          <t>Biomedical Engineering</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['F', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2587,12 +2587,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Psychology', 'Business']</t>
+          <t>['Global Studies', 'Medical Anthropology']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['F', 'F', 'T', 'T ']</t>
+          <t>['T', 'T', 'F', 'F']</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2677,28 +2677,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Psychology </t>
+          <t>['Political Science', 'Journalism']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['F', 'T', 'T', 'T', '']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>['SA', 'W']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['English', 'Computer Science']</t>
+          <t>['Political Science', 'AAAD']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2728,16 +2728,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2747,37 +2747,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Biology', 'Chemistry']</t>
+          <t>['Spanish Literature and Cultures', 'History']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'F', 'F', 'F']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Business', 'Biology ']</t>
+          <t>Health Policy and Management</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2788,7 +2788,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -2802,17 +2802,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>Journalism</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['F', 'F', 'T', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2897,58 +2897,58 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['A', 'W']</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>History</t>
+          <t>['Nutrition', 'Medical Anthropology']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'T', 'F']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Business', 'Economics']</t>
+          <t xml:space="preserve">Psychology </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['T', 'F', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2957,47 +2957,47 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Economics', 'Political Science']</t>
+          <t>['Computer Science', 'Business']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'F', 'F', 'T']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Philosophy</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3008,7 +3008,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['H', 'W']</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3027,12 +3027,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Political Science', 'Global Studies']</t>
+          <t>['Business', 'Journalism']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['F', 'F', 'T', 'T,']</t>
+          <t>['T', 'T', 'T', 'F']</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Political Science', 'Journalism']</t>
+          <t>['Public Policy', 'Economics']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3138,56 +3138,56 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Computer Science', 'Economics']</t>
+          <t>['Economics', 'Neuroscience']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['F', 'F', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['SA', 'W']</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Political Science', 'AAAD']</t>
+          <t xml:space="preserve">Mathematics </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3198,7 +3198,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>['H', 'W']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3217,18 +3217,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Business', 'Journalism']</t>
+          <t>['Political Science', 'Global Studies']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'F']</t>
+          <t>['F', 'F', 'T', 'T,']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -3237,22 +3237,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UD</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nutrition</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['F', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -3329,26 +3329,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>['Business', 'Public Policy']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3359,7 +3359,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Computer Science', 'Mathematics']</t>
+          <t>['Business', 'Economics']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3389,41 +3389,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Nutrition', 'Public Policy']</t>
+          <t>Undecided</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['T', 'T', 'F', 'F']</t>
+          <t>['F', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3438,22 +3438,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Business', 'Communication']</t>
+          <t>['Computer Science', 'PWAD']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['T', 'T', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Physics', 'Sociology']</t>
+          <t>Public Policy</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['T', 'F', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3563,23 +3563,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Human Development and Family Studies</t>
+          <t>Economics</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['F', 'F', 'F', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -3588,17 +3588,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Medical Anthropology </t>
+          <t>['Political Science', 'Journalism']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3609,16 +3609,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3628,57 +3628,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nutrition</t>
+          <t>['Nutrition', 'Public Policy']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'F', 'F']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Health Policy and Management', 'Public Policy']</t>
+          <t>['Journalism', 'Public Policy']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['F', 'T', 'T', 'F']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Public Policy</t>
+          <t>['Business', 'Computer Science']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3788,18 +3788,18 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Journalism', 'Public Policy']</t>
+          <t>Environmental Health Sciences</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'F', 'F']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3818,27 +3818,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Business', 'Computer Science']</t>
+          <t>['Statistics', 'Business']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'T', ' T']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3848,18 +3848,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Economics', 'Neuroscience']</t>
+          <t>['Global Studies', 'Philosophy']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['F', 'F', 'T', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Business', 'Economics']</t>
+          <t>Health Policy and Management</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3889,11 +3889,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Nutrition', 'Medical Anthropology']</t>
+          <t>Biology</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'F']</t>
+          <t>['T', 'T', 'F', 'F']</t>
         </is>
       </c>
     </row>
@@ -3989,46 +3989,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Global Studies', 'Medical Anthropology']</t>
+          <t>Public Policy</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['T', 'T', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4038,27 +4038,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Undecided</t>
+          <t>['Health Policy and Management', 'Public Policy']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['T', 'F', 'F', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4068,27 +4068,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biology</t>
+          <t>Nutrition</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['T', 'T', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Health Policy and Management</t>
+          <t>['Economics', 'Political Science']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4109,11 +4109,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Spanish Literature and Cultures', 'History']</t>
+          <t>['Computer Science', 'Mathematics']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['T', 'F', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4223,27 +4223,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Environmental Health Sciences</t>
+          <t>['Biology', 'PWAD']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['T', 'T', 'F', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4253,32 +4253,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Statistics', 'Business']</t>
+          <t>['Computer Science', 'Political Science']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', ' T']</t>
+          <t>['F', 'F', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4288,18 +4288,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Global Studies', 'Philosophy']</t>
+          <t>Economics</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['F', 'F', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Journalism</t>
+          <t>['Business', 'Biology ']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4329,11 +4329,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4343,17 +4343,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Political Science', 'Economics']</t>
+          <t>Journalism</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'T', 'F']</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -4429,11 +4429,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4443,12 +4443,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Biomedical Engineering</t>
+          <t xml:space="preserve">Medical Anthropology </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -4459,7 +4459,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4468,58 +4468,58 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['H', 'W']</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Undecided</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['T', 'T', 'F', 'F']</t>
+          <t>['T', 'F', 'F', 'T']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>['Business', 'Public Policy']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4528,17 +4528,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Business', 'Public Policy']</t>
+          <t>['Political Science', 'Economics']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4549,7 +4549,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4563,12 +4563,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Global Studies</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4649,7 +4649,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4663,23 +4663,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OOS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Biology', 'PWAD']</t>
+          <t>['Business', 'Communication']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['T', 'T', 'F', 'F']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4698,18 +4698,18 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Computer Science', 'Business']</t>
+          <t>Biomedical Engineering</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['T', 'F', 'F', 'T']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4718,17 +4718,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>['A', 'W']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mathematics </t>
+          <t>History</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4739,41 +4739,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Journalism</t>
+          <t>['Biology', 'Chemistry']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4788,12 +4788,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Health Policy and Management</t>
+          <t>Exercise and Sport Science</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['T', 'T', 'T', 'T']</t>
+          <t>['F', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4878,32 +4878,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OOS</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Journalism', 'Public Policy']</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['F', 'T', 'T', 'F']</t>
+          <t>['T', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4913,12 +4913,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>['Computer Science', 'Economics']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4929,7 +4929,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4948,18 +4948,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Political Science', 'Journalism']</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['F', 'T', 'T', 'T', '']</t>
+          <t>['T', 'T', 'T', 'F']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4978,27 +4978,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Exercise and Sport Science</t>
+          <t>['Business', 'Economics']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['F', 'T', 'T', 'T']</t>
+          <t>['T', 'F', 'F', 'F']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>UD</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5008,12 +5008,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Computer Science', 'Political Science']</t>
+          <t>Nutrition</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['F', 'F', 'T', 'T']</t>
+          <t>['F', 'T', 'T', 'T']</t>
         </is>
       </c>
     </row>
@@ -5027,10 +5027,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
